--- a/back-end/Web Dinamico 2/MRVMinem/Documentos/1.2 Plantilla_Eficiencia_energetica_industrial_caldera (V1).xlsx
+++ b/back-end/Web Dinamico 2/MRVMinem/Documentos/1.2 Plantilla_Eficiencia_energetica_industrial_caldera (V1).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\Desktop\Versión borrado de meses y fechas SOLO SE DEJO AÑOS _V2\Plantillas industrial en versión actual sistema MRV\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91A395C0-C890-4F62-8ACC-321FB1B5FE28}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1E88BD7-3886-4709-990F-C5A8F48F915B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-15480" yWindow="-120" windowWidth="15600" windowHeight="11310" xr2:uid="{4B859084-2846-437A-9A39-CE5A20A8C627}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{4B859084-2846-437A-9A39-CE5A20A8C627}"/>
   </bookViews>
   <sheets>
     <sheet name="Energetica Industrial Caldera" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="25">
   <si>
     <t>Año</t>
   </si>
@@ -99,9 +99,6 @@
   </si>
   <si>
     <t>Año de operación del equipo. Seleccione de la lista desplegable.</t>
-  </si>
-  <si>
-    <t>Combustible</t>
   </si>
   <si>
     <t>Capacidad</t>
@@ -682,16 +679,16 @@
   <dimension ref="A1:F312"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.140625" customWidth="1"/>
     <col min="2" max="2" width="13.7109375" hidden="1" customWidth="1"/>
-    <col min="3" max="3" width="21.42578125" customWidth="1"/>
+    <col min="3" max="3" width="27.28515625" customWidth="1"/>
     <col min="4" max="4" width="0" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="17.140625" customWidth="1"/>
+    <col min="5" max="5" width="20" customWidth="1"/>
     <col min="6" max="6" width="28.5703125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -703,16 +700,16 @@
         <v>1</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="D1" s="11" t="s">
         <v>13</v>
       </c>
       <c r="E1" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" s="11" t="s">
         <v>19</v>
-      </c>
-      <c r="F1" s="11" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
@@ -731,14 +728,14 @@
       </c>
       <c r="B3" s="12"/>
       <c r="C3" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D3" s="12"/>
       <c r="E3" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" s="9" t="s">
         <v>24</v>
-      </c>
-      <c r="F3" s="9" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -4336,12 +4333,12 @@
     <row r="260" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A260" s="16"/>
       <c r="B260" s="19" t="e">
-        <f t="shared" ref="B260:B323" si="8">VLOOKUP(C260,Tabla_BAU,2,)</f>
+        <f t="shared" ref="B260:B311" si="8">VLOOKUP(C260,Tabla_BAU,2,)</f>
         <v>#N/A</v>
       </c>
       <c r="C260" s="16"/>
       <c r="D260" s="16" t="e">
-        <f t="shared" ref="D260:D323" si="9">VLOOKUP(E260,Tabla_capacidad,2,)</f>
+        <f t="shared" ref="D260:D311" si="9">VLOOKUP(E260,Tabla_capacidad,2,)</f>
         <v>#N/A</v>
       </c>
       <c r="E260" s="16"/>
@@ -5066,7 +5063,7 @@
       <c r="B312" s="5"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="u814jIVu7kaFbtD6h4KJSbuMa4hJmo5qXUWV3S1gMYUDg5lnvq19wRyvpZX4Q5PJSeSXQ3FXKDU1mkRVBoejww==" saltValue="JUmDCSAPIk/3ncBwc8WFiQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="9HjISzY697DRzyyYIPikPdz/Ju3Q9ElnzUnU/yDbomD1UMZEvvSVmqAGvg5hiQD0hWyKr/kTK1hTmBOeErXohw==" saltValue="JtayFNFZDDtR6G7MPia88g==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="1">
     <mergeCell ref="A2:F2"/>
   </mergeCells>
@@ -5147,7 +5144,7 @@
         <v>3</v>
       </c>
       <c r="O7" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P7" s="11" t="s">
         <v>3</v>
@@ -5216,7 +5213,7 @@
         <v>2015</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D10" s="2">
         <v>3</v>
@@ -5239,7 +5236,7 @@
         <v>2016</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D11" s="2">
         <v>4</v>
